--- a/data/syllabus643.xlsx
+++ b/data/syllabus643.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC 643\643\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daviddl\Documents\EDUC\EDUC643_25W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F5E04-6111-4491-8A6A-6F68FFF178C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D4ED84-F0C8-4220-9921-1101A7ED1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>LSWR Ch 16.2 &lt;br&gt; [Campbell &amp; Ramey 1994](https://srcd.onlinelibrary.wiley.com/doi/abs/10.1111/j.1467-8624.1994.tb00777.x)</t>
+    <t>LSWR Ch 16.2 &lt;br&gt; [McIntosh et al 2021](https://www.tandfonline.com/doi/full/10.1080/1045988X.2021.1937027)</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
